--- a/outData/dividend_analysis/RLI_analysis.xlsx
+++ b/outData/dividend_analysis/RLI_analysis.xlsx
@@ -115,7 +115,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="dividend_plot.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="RLI_plot.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
